--- a/صيدليات دكتور مصطفي طلعت_2026-01-06_19-08.xlsx
+++ b/صيدليات دكتور مصطفي طلعت_2026-01-06_19-08.xlsx
@@ -41,39 +41,48 @@
     <t>1:0</t>
   </si>
   <si>
+    <t>AGGREX 75MG 60 TABS.</t>
+  </si>
+  <si>
+    <t>1:2</t>
+  </si>
+  <si>
+    <t>0:0</t>
+  </si>
+  <si>
     <t>AIG ESOMEPRAZOLE 40MG 21 CAPS.</t>
   </si>
   <si>
     <t>0:2</t>
   </si>
   <si>
-    <t>0:0</t>
-  </si>
-  <si>
     <t>ALEAVIA 20ML DROPS</t>
   </si>
   <si>
     <t>AMARYL 3 MG 30 TABS</t>
   </si>
   <si>
+    <t>0:3</t>
+  </si>
+  <si>
+    <t>ANTI-COX II 15MG/3ML 6 AMP</t>
+  </si>
+  <si>
+    <t>2:5</t>
+  </si>
+  <si>
+    <t>ANTINAL 220MG/5ML 60ML SUSP.</t>
+  </si>
+  <si>
+    <t>3:0</t>
+  </si>
+  <si>
+    <t>ASMAKAST 10 MG 30 F.C.TABS.</t>
+  </si>
+  <si>
     <t>1:1</t>
   </si>
   <si>
-    <t>ANTI-COX II 15MG/3ML 6 AMP</t>
-  </si>
-  <si>
-    <t>2:5</t>
-  </si>
-  <si>
-    <t>ANTINAL 220MG/5ML 60ML SUSP.</t>
-  </si>
-  <si>
-    <t>3:0</t>
-  </si>
-  <si>
-    <t>ASMAKAST 10 MG 30 F.C.TABS.</t>
-  </si>
-  <si>
     <t>BETADERM 0.1% OINT. 15 GM</t>
   </si>
   <si>
@@ -98,6 +107,9 @@
     <t>BRUFEN 600MG 30 TAB</t>
   </si>
   <si>
+    <t>BURNASORES 0.25% OINT. 30 GM</t>
+  </si>
+  <si>
     <t>CEVA-FRESH TAB</t>
   </si>
   <si>
@@ -152,9 +164,6 @@
     <t>0:1</t>
   </si>
   <si>
-    <t>0:3</t>
-  </si>
-  <si>
     <t>DIMRA 20 F.C.TAB.</t>
   </si>
   <si>
@@ -176,6 +185,9 @@
     <t>E-MOX 500MG 16 CAPS</t>
   </si>
   <si>
+    <t>EMPACOZA TRIO XR 10/5/1000MG 30 TAB</t>
+  </si>
+  <si>
     <t>EMPIR G CAPS</t>
   </si>
   <si>
@@ -185,9 +197,6 @@
     <t>EPICOPRED 5 MG 30 ORODISPERSIBLE TABS.</t>
   </si>
   <si>
-    <t>1:2</t>
-  </si>
-  <si>
     <t>FAYCID HAIR OIL 60 ML</t>
   </si>
   <si>
@@ -251,6 +260,12 @@
     <t>NEVILOB PLUS 5/12.5 MG 20 TAB</t>
   </si>
   <si>
+    <t>NITROMAK RETARD 2.5MG 60 CAPS</t>
+  </si>
+  <si>
+    <t>3:5</t>
+  </si>
+  <si>
     <t>OLAPEX 10 MG 30 F.C.TABS.</t>
   </si>
   <si>
@@ -381,6 +396,12 @@
   </si>
   <si>
     <t>سيتي بيبي رقم 4</t>
+  </si>
+  <si>
+    <t>شاش معقم لاصق 10*18</t>
+  </si>
+  <si>
+    <t>18:0</t>
   </si>
   <si>
     <t>شامبو لوريال الفيفا</t>
@@ -1026,7 +1047,7 @@
       <c r="J5" s="8"/>
       <c r="K5" s="8"/>
       <c r="L5" s="9">
-        <v>74</v>
+        <v>4.5</v>
       </c>
       <c r="M5" s="9"/>
       <c t="s" r="N5" s="7">
@@ -1046,17 +1067,17 @@
       <c r="F6" s="7"/>
       <c r="G6" s="7"/>
       <c t="s" r="H6" s="8">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="I6" s="8"/>
       <c r="J6" s="8"/>
       <c r="K6" s="8"/>
       <c r="L6" s="9">
-        <v>35</v>
+        <v>74</v>
       </c>
       <c r="M6" s="9"/>
       <c t="s" r="N6" s="7">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" ht="25.5" customHeight="1">
@@ -1064,7 +1085,7 @@
         <v>4</v>
       </c>
       <c t="s" r="B7" s="7">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C7" s="7"/>
       <c r="D7" s="7"/>
@@ -1072,17 +1093,17 @@
       <c r="F7" s="7"/>
       <c r="G7" s="7"/>
       <c t="s" r="H7" s="8">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="I7" s="8"/>
       <c r="J7" s="8"/>
       <c r="K7" s="8"/>
       <c r="L7" s="9">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="M7" s="9"/>
       <c t="s" r="N7" s="7">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8" ht="25.5" customHeight="1">
@@ -1098,17 +1119,17 @@
       <c r="F8" s="7"/>
       <c r="G8" s="7"/>
       <c t="s" r="H8" s="8">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="I8" s="8"/>
       <c r="J8" s="8"/>
       <c r="K8" s="8"/>
       <c r="L8" s="9">
-        <v>13</v>
+        <v>58</v>
       </c>
       <c r="M8" s="9"/>
       <c t="s" r="N8" s="7">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" ht="24.75" customHeight="1">
@@ -1130,11 +1151,11 @@
       <c r="J9" s="8"/>
       <c r="K9" s="8"/>
       <c r="L9" s="9">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="M9" s="9"/>
       <c t="s" r="N9" s="7">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" ht="25.5" customHeight="1">
@@ -1150,13 +1171,13 @@
       <c r="F10" s="7"/>
       <c r="G10" s="7"/>
       <c t="s" r="H10" s="8">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="I10" s="8"/>
       <c r="J10" s="8"/>
       <c r="K10" s="8"/>
       <c r="L10" s="9">
-        <v>156</v>
+        <v>24</v>
       </c>
       <c r="M10" s="9"/>
       <c t="s" r="N10" s="7">
@@ -1168,7 +1189,7 @@
         <v>8</v>
       </c>
       <c t="s" r="B11" s="7">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C11" s="7"/>
       <c r="D11" s="7"/>
@@ -1176,13 +1197,13 @@
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
       <c t="s" r="H11" s="8">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I11" s="8"/>
       <c r="J11" s="8"/>
       <c r="K11" s="8"/>
       <c r="L11" s="9">
-        <v>18</v>
+        <v>156</v>
       </c>
       <c r="M11" s="9"/>
       <c t="s" r="N11" s="7">
@@ -1194,7 +1215,7 @@
         <v>9</v>
       </c>
       <c t="s" r="B12" s="7">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C12" s="7"/>
       <c r="D12" s="7"/>
@@ -1202,17 +1223,17 @@
       <c r="F12" s="7"/>
       <c r="G12" s="7"/>
       <c t="s" r="H12" s="8">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="I12" s="8"/>
       <c r="J12" s="8"/>
       <c r="K12" s="8"/>
       <c r="L12" s="9">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="M12" s="9"/>
       <c t="s" r="N12" s="7">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="13" ht="25.5" customHeight="1">
@@ -1220,7 +1241,7 @@
         <v>10</v>
       </c>
       <c t="s" r="B13" s="7">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C13" s="7"/>
       <c r="D13" s="7"/>
@@ -1228,17 +1249,17 @@
       <c r="F13" s="7"/>
       <c r="G13" s="7"/>
       <c t="s" r="H13" s="8">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="I13" s="8"/>
       <c r="J13" s="8"/>
       <c r="K13" s="8"/>
       <c r="L13" s="9">
-        <v>-28</v>
+        <v>32</v>
       </c>
       <c r="M13" s="9"/>
       <c t="s" r="N13" s="7">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="14" ht="24.75" customHeight="1">
@@ -1246,7 +1267,7 @@
         <v>11</v>
       </c>
       <c t="s" r="B14" s="7">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C14" s="7"/>
       <c r="D14" s="7"/>
@@ -1254,13 +1275,13 @@
       <c r="F14" s="7"/>
       <c r="G14" s="7"/>
       <c t="s" r="H14" s="8">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="I14" s="8"/>
       <c r="J14" s="8"/>
       <c r="K14" s="8"/>
       <c r="L14" s="9">
-        <v>69</v>
+        <v>-28</v>
       </c>
       <c r="M14" s="9"/>
       <c t="s" r="N14" s="7">
@@ -1272,7 +1293,7 @@
         <v>12</v>
       </c>
       <c t="s" r="B15" s="7">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C15" s="7"/>
       <c r="D15" s="7"/>
@@ -1280,13 +1301,13 @@
       <c r="F15" s="7"/>
       <c r="G15" s="7"/>
       <c t="s" r="H15" s="8">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="I15" s="8"/>
       <c r="J15" s="8"/>
       <c r="K15" s="8"/>
       <c r="L15" s="9">
-        <v>24</v>
+        <v>69</v>
       </c>
       <c r="M15" s="9"/>
       <c t="s" r="N15" s="7">
@@ -1298,7 +1319,7 @@
         <v>13</v>
       </c>
       <c t="s" r="B16" s="7">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C16" s="7"/>
       <c r="D16" s="7"/>
@@ -1306,17 +1327,17 @@
       <c r="F16" s="7"/>
       <c r="G16" s="7"/>
       <c t="s" r="H16" s="8">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="I16" s="8"/>
       <c r="J16" s="8"/>
       <c r="K16" s="8"/>
       <c r="L16" s="9">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="M16" s="9"/>
       <c t="s" r="N16" s="7">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1324,7 +1345,7 @@
         <v>14</v>
       </c>
       <c t="s" r="B17" s="7">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C17" s="7"/>
       <c r="D17" s="7"/>
@@ -1332,17 +1353,17 @@
       <c r="F17" s="7"/>
       <c r="G17" s="7"/>
       <c t="s" r="H17" s="8">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="I17" s="8"/>
       <c r="J17" s="8"/>
       <c r="K17" s="8"/>
       <c r="L17" s="9">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="M17" s="9"/>
       <c t="s" r="N17" s="7">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="18" ht="25.5" customHeight="1">
@@ -1350,7 +1371,7 @@
         <v>15</v>
       </c>
       <c t="s" r="B18" s="7">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C18" s="7"/>
       <c r="D18" s="7"/>
@@ -1358,17 +1379,17 @@
       <c r="F18" s="7"/>
       <c r="G18" s="7"/>
       <c t="s" r="H18" s="8">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I18" s="8"/>
       <c r="J18" s="8"/>
       <c r="K18" s="8"/>
       <c r="L18" s="9">
-        <v>43</v>
+        <v>110</v>
       </c>
       <c r="M18" s="9"/>
       <c t="s" r="N18" s="7">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="19" ht="24.75" customHeight="1">
@@ -1376,7 +1397,7 @@
         <v>16</v>
       </c>
       <c t="s" r="B19" s="7">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C19" s="7"/>
       <c r="D19" s="7"/>
@@ -1384,17 +1405,17 @@
       <c r="F19" s="7"/>
       <c r="G19" s="7"/>
       <c t="s" r="H19" s="8">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="I19" s="8"/>
       <c r="J19" s="8"/>
       <c r="K19" s="8"/>
       <c r="L19" s="9">
-        <v>55</v>
+        <v>12</v>
       </c>
       <c r="M19" s="9"/>
       <c t="s" r="N19" s="7">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="20" ht="25.5" customHeight="1">
@@ -1402,7 +1423,7 @@
         <v>17</v>
       </c>
       <c t="s" r="B20" s="7">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C20" s="7"/>
       <c r="D20" s="7"/>
@@ -1410,17 +1431,17 @@
       <c r="F20" s="7"/>
       <c r="G20" s="7"/>
       <c t="s" r="H20" s="8">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="I20" s="8"/>
       <c r="J20" s="8"/>
       <c r="K20" s="8"/>
       <c r="L20" s="9">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="M20" s="9"/>
       <c t="s" r="N20" s="7">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="21" ht="24.75" customHeight="1">
@@ -1428,7 +1449,7 @@
         <v>18</v>
       </c>
       <c t="s" r="B21" s="7">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C21" s="7"/>
       <c r="D21" s="7"/>
@@ -1436,17 +1457,17 @@
       <c r="F21" s="7"/>
       <c r="G21" s="7"/>
       <c t="s" r="H21" s="8">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="I21" s="8"/>
       <c r="J21" s="8"/>
       <c r="K21" s="8"/>
       <c r="L21" s="9">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="M21" s="9"/>
       <c t="s" r="N21" s="7">
-        <v>22</v>
+        <v>14</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1454,7 +1475,7 @@
         <v>19</v>
       </c>
       <c t="s" r="B22" s="7">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C22" s="7"/>
       <c r="D22" s="7"/>
@@ -1462,17 +1483,17 @@
       <c r="F22" s="7"/>
       <c r="G22" s="7"/>
       <c t="s" r="H22" s="8">
-        <v>37</v>
+        <v>9</v>
       </c>
       <c r="I22" s="8"/>
       <c r="J22" s="8"/>
       <c r="K22" s="8"/>
       <c r="L22" s="9">
-        <v>27.5</v>
+        <v>47</v>
       </c>
       <c r="M22" s="9"/>
       <c t="s" r="N22" s="7">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="23" ht="25.5" customHeight="1">
@@ -1488,17 +1509,17 @@
       <c r="F23" s="7"/>
       <c r="G23" s="7"/>
       <c t="s" r="H23" s="8">
-        <v>11</v>
+        <v>39</v>
       </c>
       <c r="I23" s="8"/>
       <c r="J23" s="8"/>
       <c r="K23" s="8"/>
       <c r="L23" s="9">
-        <v>92</v>
+        <v>66</v>
       </c>
       <c r="M23" s="9"/>
       <c t="s" r="N23" s="7">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="24" ht="24.75" customHeight="1">
@@ -1506,7 +1527,7 @@
         <v>21</v>
       </c>
       <c t="s" r="B24" s="7">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C24" s="7"/>
       <c r="D24" s="7"/>
@@ -1514,13 +1535,13 @@
       <c r="F24" s="7"/>
       <c r="G24" s="7"/>
       <c t="s" r="H24" s="8">
-        <v>9</v>
+        <v>41</v>
       </c>
       <c r="I24" s="8"/>
       <c r="J24" s="8"/>
       <c r="K24" s="8"/>
       <c r="L24" s="9">
-        <v>24</v>
+        <v>27.5</v>
       </c>
       <c r="M24" s="9"/>
       <c t="s" r="N24" s="7">
@@ -1532,7 +1553,7 @@
         <v>22</v>
       </c>
       <c t="s" r="B25" s="7">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C25" s="7"/>
       <c r="D25" s="7"/>
@@ -1540,13 +1561,13 @@
       <c r="F25" s="7"/>
       <c r="G25" s="7"/>
       <c t="s" r="H25" s="8">
-        <v>41</v>
+        <v>14</v>
       </c>
       <c r="I25" s="8"/>
       <c r="J25" s="8"/>
       <c r="K25" s="8"/>
       <c r="L25" s="9">
-        <v>17</v>
+        <v>92</v>
       </c>
       <c r="M25" s="9"/>
       <c t="s" r="N25" s="7">
@@ -1558,7 +1579,7 @@
         <v>23</v>
       </c>
       <c t="s" r="B26" s="7">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C26" s="7"/>
       <c r="D26" s="7"/>
@@ -1566,17 +1587,17 @@
       <c r="F26" s="7"/>
       <c r="G26" s="7"/>
       <c t="s" r="H26" s="8">
-        <v>41</v>
+        <v>9</v>
       </c>
       <c r="I26" s="8"/>
       <c r="J26" s="8"/>
       <c r="K26" s="8"/>
       <c r="L26" s="9">
-        <v>52</v>
+        <v>24</v>
       </c>
       <c r="M26" s="9"/>
       <c t="s" r="N26" s="7">
-        <v>43</v>
+        <v>12</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1592,17 +1613,17 @@
       <c r="F27" s="7"/>
       <c r="G27" s="7"/>
       <c t="s" r="H27" s="8">
-        <v>9</v>
+        <v>45</v>
       </c>
       <c r="I27" s="8"/>
       <c r="J27" s="8"/>
       <c r="K27" s="8"/>
       <c r="L27" s="9">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="M27" s="9"/>
       <c t="s" r="N27" s="7">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="28" ht="25.5" customHeight="1">
@@ -1610,7 +1631,7 @@
         <v>25</v>
       </c>
       <c t="s" r="B28" s="7">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C28" s="7"/>
       <c r="D28" s="7"/>
@@ -1618,13 +1639,13 @@
       <c r="F28" s="7"/>
       <c r="G28" s="7"/>
       <c t="s" r="H28" s="8">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I28" s="8"/>
       <c r="J28" s="8"/>
       <c r="K28" s="8"/>
       <c r="L28" s="9">
-        <v>122.5</v>
+        <v>52</v>
       </c>
       <c r="M28" s="9"/>
       <c t="s" r="N28" s="7">
@@ -1644,17 +1665,17 @@
       <c r="F29" s="7"/>
       <c r="G29" s="7"/>
       <c t="s" r="H29" s="8">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="I29" s="8"/>
       <c r="J29" s="8"/>
       <c r="K29" s="8"/>
       <c r="L29" s="9">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="M29" s="9"/>
       <c t="s" r="N29" s="7">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="30" ht="25.5" customHeight="1">
@@ -1676,11 +1697,11 @@
       <c r="J30" s="8"/>
       <c r="K30" s="8"/>
       <c r="L30" s="9">
-        <v>48</v>
+        <v>122.5</v>
       </c>
       <c r="M30" s="9"/>
       <c t="s" r="N30" s="7">
-        <v>47</v>
+        <v>17</v>
       </c>
     </row>
     <row r="31" ht="24.75" customHeight="1">
@@ -1696,17 +1717,17 @@
       <c r="F31" s="7"/>
       <c r="G31" s="7"/>
       <c t="s" r="H31" s="8">
-        <v>52</v>
+        <v>21</v>
       </c>
       <c r="I31" s="8"/>
       <c r="J31" s="8"/>
       <c r="K31" s="8"/>
       <c r="L31" s="9">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="M31" s="9"/>
       <c t="s" r="N31" s="7">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1714,7 +1735,7 @@
         <v>29</v>
       </c>
       <c t="s" r="B32" s="7">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C32" s="7"/>
       <c r="D32" s="7"/>
@@ -1722,17 +1743,17 @@
       <c r="F32" s="7"/>
       <c r="G32" s="7"/>
       <c t="s" r="H32" s="8">
-        <v>22</v>
+        <v>53</v>
       </c>
       <c r="I32" s="8"/>
       <c r="J32" s="8"/>
       <c r="K32" s="8"/>
       <c r="L32" s="9">
-        <v>18</v>
+        <v>48</v>
       </c>
       <c r="M32" s="9"/>
       <c t="s" r="N32" s="7">
-        <v>11</v>
+        <v>17</v>
       </c>
     </row>
     <row r="33" ht="25.5" customHeight="1">
@@ -1748,17 +1769,17 @@
       <c r="F33" s="7"/>
       <c r="G33" s="7"/>
       <c t="s" r="H33" s="8">
-        <v>37</v>
+        <v>55</v>
       </c>
       <c r="I33" s="8"/>
       <c r="J33" s="8"/>
       <c r="K33" s="8"/>
       <c r="L33" s="9">
-        <v>20</v>
+        <v>41</v>
       </c>
       <c r="M33" s="9"/>
       <c t="s" r="N33" s="7">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="34" ht="24.75" customHeight="1">
@@ -1766,7 +1787,7 @@
         <v>31</v>
       </c>
       <c t="s" r="B34" s="7">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C34" s="7"/>
       <c r="D34" s="7"/>
@@ -1774,17 +1795,17 @@
       <c r="F34" s="7"/>
       <c r="G34" s="7"/>
       <c t="s" r="H34" s="8">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="I34" s="8"/>
       <c r="J34" s="8"/>
       <c r="K34" s="8"/>
       <c r="L34" s="9">
-        <v>109</v>
+        <v>18</v>
       </c>
       <c r="M34" s="9"/>
       <c t="s" r="N34" s="7">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="35" ht="25.5" customHeight="1">
@@ -1792,7 +1813,7 @@
         <v>32</v>
       </c>
       <c t="s" r="B35" s="7">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C35" s="7"/>
       <c r="D35" s="7"/>
@@ -1800,17 +1821,17 @@
       <c r="F35" s="7"/>
       <c r="G35" s="7"/>
       <c t="s" r="H35" s="8">
-        <v>9</v>
+        <v>41</v>
       </c>
       <c r="I35" s="8"/>
       <c r="J35" s="8"/>
       <c r="K35" s="8"/>
       <c r="L35" s="9">
-        <v>52</v>
+        <v>20</v>
       </c>
       <c r="M35" s="9"/>
       <c t="s" r="N35" s="7">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="36" ht="24.75" customHeight="1">
@@ -1818,7 +1839,7 @@
         <v>33</v>
       </c>
       <c t="s" r="B36" s="7">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C36" s="7"/>
       <c r="D36" s="7"/>
@@ -1826,13 +1847,13 @@
       <c r="F36" s="7"/>
       <c r="G36" s="7"/>
       <c t="s" r="H36" s="8">
-        <v>58</v>
+        <v>14</v>
       </c>
       <c r="I36" s="8"/>
       <c r="J36" s="8"/>
       <c r="K36" s="8"/>
       <c r="L36" s="9">
-        <v>23</v>
+        <v>132</v>
       </c>
       <c r="M36" s="9"/>
       <c t="s" r="N36" s="7">
@@ -1852,13 +1873,13 @@
       <c r="F37" s="7"/>
       <c r="G37" s="7"/>
       <c t="s" r="H37" s="8">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="I37" s="8"/>
       <c r="J37" s="8"/>
       <c r="K37" s="8"/>
       <c r="L37" s="9">
-        <v>30</v>
+        <v>109</v>
       </c>
       <c r="M37" s="9"/>
       <c t="s" r="N37" s="7">
@@ -1878,17 +1899,17 @@
       <c r="F38" s="7"/>
       <c r="G38" s="7"/>
       <c t="s" r="H38" s="8">
-        <v>58</v>
+        <v>9</v>
       </c>
       <c r="I38" s="8"/>
       <c r="J38" s="8"/>
       <c r="K38" s="8"/>
       <c r="L38" s="9">
-        <v>30.670000000000002</v>
+        <v>52</v>
       </c>
       <c r="M38" s="9"/>
       <c t="s" r="N38" s="7">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="39" ht="24.75" customHeight="1">
@@ -1904,17 +1925,17 @@
       <c r="F39" s="7"/>
       <c r="G39" s="7"/>
       <c t="s" r="H39" s="8">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="I39" s="8"/>
       <c r="J39" s="8"/>
       <c r="K39" s="8"/>
       <c r="L39" s="9">
-        <v>100</v>
+        <v>23</v>
       </c>
       <c r="M39" s="9"/>
       <c t="s" r="N39" s="7">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="40" ht="25.5" customHeight="1">
@@ -1930,17 +1951,17 @@
       <c r="F40" s="7"/>
       <c r="G40" s="7"/>
       <c t="s" r="H40" s="8">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="I40" s="8"/>
       <c r="J40" s="8"/>
       <c r="K40" s="8"/>
       <c r="L40" s="9">
-        <v>105</v>
+        <v>30</v>
       </c>
       <c r="M40" s="9"/>
       <c t="s" r="N40" s="7">
-        <v>47</v>
+        <v>9</v>
       </c>
     </row>
     <row r="41" ht="24.75" customHeight="1">
@@ -1956,13 +1977,13 @@
       <c r="F41" s="7"/>
       <c r="G41" s="7"/>
       <c t="s" r="H41" s="8">
-        <v>37</v>
+        <v>11</v>
       </c>
       <c r="I41" s="8"/>
       <c r="J41" s="8"/>
       <c r="K41" s="8"/>
       <c r="L41" s="9">
-        <v>22</v>
+        <v>30.670000000000002</v>
       </c>
       <c r="M41" s="9"/>
       <c t="s" r="N41" s="7">
@@ -1982,13 +2003,13 @@
       <c r="F42" s="7"/>
       <c r="G42" s="7"/>
       <c t="s" r="H42" s="8">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="I42" s="8"/>
       <c r="J42" s="8"/>
       <c r="K42" s="8"/>
       <c r="L42" s="9">
-        <v>36</v>
+        <v>100</v>
       </c>
       <c r="M42" s="9"/>
       <c t="s" r="N42" s="7">
@@ -2008,17 +2029,17 @@
       <c r="F43" s="7"/>
       <c r="G43" s="7"/>
       <c t="s" r="H43" s="8">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="I43" s="8"/>
       <c r="J43" s="8"/>
       <c r="K43" s="8"/>
       <c r="L43" s="9">
-        <v>39</v>
+        <v>105</v>
       </c>
       <c r="M43" s="9"/>
       <c t="s" r="N43" s="7">
-        <v>9</v>
+        <v>17</v>
       </c>
     </row>
     <row r="44" ht="24.75" customHeight="1">
@@ -2034,17 +2055,17 @@
       <c r="F44" s="7"/>
       <c r="G44" s="7"/>
       <c t="s" r="H44" s="8">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="I44" s="8"/>
       <c r="J44" s="8"/>
       <c r="K44" s="8"/>
       <c r="L44" s="9">
-        <v>-290</v>
+        <v>22</v>
       </c>
       <c r="M44" s="9"/>
       <c t="s" r="N44" s="7">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="45" ht="25.5" customHeight="1">
@@ -2060,13 +2081,13 @@
       <c r="F45" s="7"/>
       <c r="G45" s="7"/>
       <c t="s" r="H45" s="8">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="I45" s="8"/>
       <c r="J45" s="8"/>
       <c r="K45" s="8"/>
       <c r="L45" s="9">
-        <v>200</v>
+        <v>36</v>
       </c>
       <c r="M45" s="9"/>
       <c t="s" r="N45" s="7">
@@ -2086,13 +2107,13 @@
       <c r="F46" s="7"/>
       <c r="G46" s="7"/>
       <c t="s" r="H46" s="8">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="I46" s="8"/>
       <c r="J46" s="8"/>
       <c r="K46" s="8"/>
       <c r="L46" s="9">
-        <v>67</v>
+        <v>39</v>
       </c>
       <c r="M46" s="9"/>
       <c t="s" r="N46" s="7">
@@ -2112,13 +2133,13 @@
       <c r="F47" s="7"/>
       <c r="G47" s="7"/>
       <c t="s" r="H47" s="8">
-        <v>52</v>
+        <v>12</v>
       </c>
       <c r="I47" s="8"/>
       <c r="J47" s="8"/>
       <c r="K47" s="8"/>
       <c r="L47" s="9">
-        <v>52</v>
+        <v>-290</v>
       </c>
       <c r="M47" s="9"/>
       <c t="s" r="N47" s="7">
@@ -2144,7 +2165,7 @@
       <c r="J48" s="8"/>
       <c r="K48" s="8"/>
       <c r="L48" s="9">
-        <v>55</v>
+        <v>200</v>
       </c>
       <c r="M48" s="9"/>
       <c t="s" r="N48" s="7">
@@ -2164,17 +2185,17 @@
       <c r="F49" s="7"/>
       <c r="G49" s="7"/>
       <c t="s" r="H49" s="8">
-        <v>72</v>
+        <v>28</v>
       </c>
       <c r="I49" s="8"/>
       <c r="J49" s="8"/>
       <c r="K49" s="8"/>
       <c r="L49" s="9">
-        <v>27.329999999999998</v>
+        <v>67</v>
       </c>
       <c r="M49" s="9"/>
       <c t="s" r="N49" s="7">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="50" ht="25.5" customHeight="1">
@@ -2182,7 +2203,7 @@
         <v>47</v>
       </c>
       <c t="s" r="B50" s="7">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C50" s="7"/>
       <c r="D50" s="7"/>
@@ -2190,13 +2211,13 @@
       <c r="F50" s="7"/>
       <c r="G50" s="7"/>
       <c t="s" r="H50" s="8">
-        <v>22</v>
+        <v>55</v>
       </c>
       <c r="I50" s="8"/>
       <c r="J50" s="8"/>
       <c r="K50" s="8"/>
       <c r="L50" s="9">
-        <v>31</v>
+        <v>52</v>
       </c>
       <c r="M50" s="9"/>
       <c t="s" r="N50" s="7">
@@ -2208,7 +2229,7 @@
         <v>48</v>
       </c>
       <c t="s" r="B51" s="7">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C51" s="7"/>
       <c r="D51" s="7"/>
@@ -2222,7 +2243,7 @@
       <c r="J51" s="8"/>
       <c r="K51" s="8"/>
       <c r="L51" s="9">
-        <v>35</v>
+        <v>55</v>
       </c>
       <c r="M51" s="9"/>
       <c t="s" r="N51" s="7">
@@ -2234,7 +2255,7 @@
         <v>49</v>
       </c>
       <c t="s" r="B52" s="7">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C52" s="7"/>
       <c r="D52" s="7"/>
@@ -2242,17 +2263,17 @@
       <c r="F52" s="7"/>
       <c r="G52" s="7"/>
       <c t="s" r="H52" s="8">
-        <v>9</v>
+        <v>75</v>
       </c>
       <c r="I52" s="8"/>
       <c r="J52" s="8"/>
       <c r="K52" s="8"/>
       <c r="L52" s="9">
-        <v>75</v>
+        <v>27.329999999999998</v>
       </c>
       <c r="M52" s="9"/>
       <c t="s" r="N52" s="7">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="53" ht="25.5" customHeight="1">
@@ -2268,17 +2289,17 @@
       <c r="F53" s="7"/>
       <c r="G53" s="7"/>
       <c t="s" r="H53" s="8">
-        <v>52</v>
+        <v>25</v>
       </c>
       <c r="I53" s="8"/>
       <c r="J53" s="8"/>
       <c r="K53" s="8"/>
       <c r="L53" s="9">
-        <v>-57</v>
+        <v>31</v>
       </c>
       <c r="M53" s="9"/>
       <c t="s" r="N53" s="7">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="54" ht="24.75" customHeight="1">
@@ -2294,13 +2315,13 @@
       <c r="F54" s="7"/>
       <c r="G54" s="7"/>
       <c t="s" r="H54" s="8">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="I54" s="8"/>
       <c r="J54" s="8"/>
       <c r="K54" s="8"/>
       <c r="L54" s="9">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="M54" s="9"/>
       <c t="s" r="N54" s="7">
@@ -2326,11 +2347,11 @@
       <c r="J55" s="8"/>
       <c r="K55" s="8"/>
       <c r="L55" s="9">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="M55" s="9"/>
       <c t="s" r="N55" s="7">
-        <v>47</v>
+        <v>9</v>
       </c>
     </row>
     <row r="56" ht="24.75" customHeight="1">
@@ -2346,17 +2367,17 @@
       <c r="F56" s="7"/>
       <c r="G56" s="7"/>
       <c t="s" r="H56" s="8">
-        <v>9</v>
+        <v>55</v>
       </c>
       <c r="I56" s="8"/>
       <c r="J56" s="8"/>
       <c r="K56" s="8"/>
       <c r="L56" s="9">
-        <v>43</v>
+        <v>-57</v>
       </c>
       <c r="M56" s="9"/>
       <c t="s" r="N56" s="7">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2372,17 +2393,17 @@
       <c r="F57" s="7"/>
       <c r="G57" s="7"/>
       <c t="s" r="H57" s="8">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="I57" s="8"/>
       <c r="J57" s="8"/>
       <c r="K57" s="8"/>
       <c r="L57" s="9">
-        <v>76.439999999999998</v>
+        <v>39</v>
       </c>
       <c r="M57" s="9"/>
       <c t="s" r="N57" s="7">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="58" ht="25.5" customHeight="1">
@@ -2398,17 +2419,17 @@
       <c r="F58" s="7"/>
       <c r="G58" s="7"/>
       <c t="s" r="H58" s="8">
-        <v>82</v>
+        <v>9</v>
       </c>
       <c r="I58" s="8"/>
       <c r="J58" s="8"/>
       <c r="K58" s="8"/>
       <c r="L58" s="9">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="M58" s="9"/>
       <c t="s" r="N58" s="7">
-        <v>11</v>
+        <v>17</v>
       </c>
     </row>
     <row r="59" ht="24.75" customHeight="1">
@@ -2416,7 +2437,7 @@
         <v>56</v>
       </c>
       <c t="s" r="B59" s="7">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C59" s="7"/>
       <c r="D59" s="7"/>
@@ -2424,13 +2445,13 @@
       <c r="F59" s="7"/>
       <c r="G59" s="7"/>
       <c t="s" r="H59" s="8">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="I59" s="8"/>
       <c r="J59" s="8"/>
       <c r="K59" s="8"/>
       <c r="L59" s="9">
-        <v>31</v>
+        <v>86</v>
       </c>
       <c r="M59" s="9"/>
       <c t="s" r="N59" s="7">
@@ -2442,7 +2463,7 @@
         <v>57</v>
       </c>
       <c t="s" r="B60" s="7">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C60" s="7"/>
       <c r="D60" s="7"/>
@@ -2450,17 +2471,17 @@
       <c r="F60" s="7"/>
       <c r="G60" s="7"/>
       <c t="s" r="H60" s="8">
-        <v>22</v>
+        <v>84</v>
       </c>
       <c r="I60" s="8"/>
       <c r="J60" s="8"/>
       <c r="K60" s="8"/>
       <c r="L60" s="9">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="M60" s="9"/>
       <c t="s" r="N60" s="7">
-        <v>22</v>
+        <v>12</v>
       </c>
     </row>
     <row r="61" ht="24.75" customHeight="1">
@@ -2476,17 +2497,17 @@
       <c r="F61" s="7"/>
       <c r="G61" s="7"/>
       <c t="s" r="H61" s="8">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I61" s="8"/>
       <c r="J61" s="8"/>
       <c r="K61" s="8"/>
       <c r="L61" s="9">
-        <v>76</v>
+        <v>76.439999999999998</v>
       </c>
       <c r="M61" s="9"/>
       <c t="s" r="N61" s="7">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -2502,17 +2523,17 @@
       <c r="F62" s="7"/>
       <c r="G62" s="7"/>
       <c t="s" r="H62" s="8">
-        <v>22</v>
+        <v>87</v>
       </c>
       <c r="I62" s="8"/>
       <c r="J62" s="8"/>
       <c r="K62" s="8"/>
       <c r="L62" s="9">
-        <v>51</v>
+        <v>16</v>
       </c>
       <c r="M62" s="9"/>
       <c t="s" r="N62" s="7">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="63" ht="25.5" customHeight="1">
@@ -2520,7 +2541,7 @@
         <v>60</v>
       </c>
       <c t="s" r="B63" s="7">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C63" s="7"/>
       <c r="D63" s="7"/>
@@ -2528,17 +2549,17 @@
       <c r="F63" s="7"/>
       <c r="G63" s="7"/>
       <c t="s" r="H63" s="8">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="I63" s="8"/>
       <c r="J63" s="8"/>
       <c r="K63" s="8"/>
       <c r="L63" s="9">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="M63" s="9"/>
       <c t="s" r="N63" s="7">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="64" ht="24.75" customHeight="1">
@@ -2546,7 +2567,7 @@
         <v>61</v>
       </c>
       <c t="s" r="B64" s="7">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C64" s="7"/>
       <c r="D64" s="7"/>
@@ -2554,17 +2575,17 @@
       <c r="F64" s="7"/>
       <c r="G64" s="7"/>
       <c t="s" r="H64" s="8">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="I64" s="8"/>
       <c r="J64" s="8"/>
       <c r="K64" s="8"/>
       <c r="L64" s="9">
-        <v>160</v>
+        <v>30</v>
       </c>
       <c r="M64" s="9"/>
       <c t="s" r="N64" s="7">
-        <v>9</v>
+        <v>25</v>
       </c>
     </row>
     <row r="65" ht="25.5" customHeight="1">
@@ -2572,7 +2593,7 @@
         <v>62</v>
       </c>
       <c t="s" r="B65" s="7">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C65" s="7"/>
       <c r="D65" s="7"/>
@@ -2580,17 +2601,17 @@
       <c r="F65" s="7"/>
       <c r="G65" s="7"/>
       <c t="s" r="H65" s="8">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="I65" s="8"/>
       <c r="J65" s="8"/>
       <c r="K65" s="8"/>
       <c r="L65" s="9">
-        <v>67</v>
+        <v>76</v>
       </c>
       <c r="M65" s="9"/>
       <c t="s" r="N65" s="7">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="66" ht="24.75" customHeight="1">
@@ -2598,7 +2619,7 @@
         <v>63</v>
       </c>
       <c t="s" r="B66" s="7">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C66" s="7"/>
       <c r="D66" s="7"/>
@@ -2606,17 +2627,17 @@
       <c r="F66" s="7"/>
       <c r="G66" s="7"/>
       <c t="s" r="H66" s="8">
-        <v>72</v>
+        <v>25</v>
       </c>
       <c r="I66" s="8"/>
       <c r="J66" s="8"/>
       <c r="K66" s="8"/>
       <c r="L66" s="9">
-        <v>7.0499999999999998</v>
+        <v>51</v>
       </c>
       <c r="M66" s="9"/>
       <c t="s" r="N66" s="7">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -2624,7 +2645,7 @@
         <v>64</v>
       </c>
       <c t="s" r="B67" s="7">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C67" s="7"/>
       <c r="D67" s="7"/>
@@ -2632,17 +2653,17 @@
       <c r="F67" s="7"/>
       <c r="G67" s="7"/>
       <c t="s" r="H67" s="8">
-        <v>43</v>
+        <v>12</v>
       </c>
       <c r="I67" s="8"/>
       <c r="J67" s="8"/>
       <c r="K67" s="8"/>
       <c r="L67" s="9">
-        <v>47.670000000000002</v>
+        <v>48</v>
       </c>
       <c r="M67" s="9"/>
       <c t="s" r="N67" s="7">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="68" ht="25.5" customHeight="1">
@@ -2650,7 +2671,7 @@
         <v>65</v>
       </c>
       <c t="s" r="B68" s="7">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C68" s="7"/>
       <c r="D68" s="7"/>
@@ -2664,11 +2685,11 @@
       <c r="J68" s="8"/>
       <c r="K68" s="8"/>
       <c r="L68" s="9">
-        <v>89.099999999999994</v>
+        <v>160</v>
       </c>
       <c r="M68" s="9"/>
       <c t="s" r="N68" s="7">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="69" ht="24.75" customHeight="1">
@@ -2676,7 +2697,7 @@
         <v>66</v>
       </c>
       <c t="s" r="B69" s="7">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C69" s="7"/>
       <c r="D69" s="7"/>
@@ -2684,17 +2705,17 @@
       <c r="F69" s="7"/>
       <c r="G69" s="7"/>
       <c t="s" r="H69" s="8">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="I69" s="8"/>
       <c r="J69" s="8"/>
       <c r="K69" s="8"/>
       <c r="L69" s="9">
-        <v>-185</v>
+        <v>67</v>
       </c>
       <c r="M69" s="9"/>
       <c t="s" r="N69" s="7">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="70" ht="25.5" customHeight="1">
@@ -2702,7 +2723,7 @@
         <v>67</v>
       </c>
       <c t="s" r="B70" s="7">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C70" s="7"/>
       <c r="D70" s="7"/>
@@ -2710,17 +2731,17 @@
       <c r="F70" s="7"/>
       <c r="G70" s="7"/>
       <c t="s" r="H70" s="8">
-        <v>15</v>
+        <v>75</v>
       </c>
       <c r="I70" s="8"/>
       <c r="J70" s="8"/>
       <c r="K70" s="8"/>
       <c r="L70" s="9">
-        <v>71</v>
+        <v>7.0499999999999998</v>
       </c>
       <c r="M70" s="9"/>
       <c t="s" r="N70" s="7">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="71" ht="24.75" customHeight="1">
@@ -2728,7 +2749,7 @@
         <v>68</v>
       </c>
       <c t="s" r="B71" s="7">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C71" s="7"/>
       <c r="D71" s="7"/>
@@ -2736,13 +2757,13 @@
       <c r="F71" s="7"/>
       <c r="G71" s="7"/>
       <c t="s" r="H71" s="8">
-        <v>96</v>
+        <v>47</v>
       </c>
       <c r="I71" s="8"/>
       <c r="J71" s="8"/>
       <c r="K71" s="8"/>
       <c r="L71" s="9">
-        <v>45.5</v>
+        <v>47.670000000000002</v>
       </c>
       <c r="M71" s="9"/>
       <c t="s" r="N71" s="7">
@@ -2768,11 +2789,11 @@
       <c r="J72" s="8"/>
       <c r="K72" s="8"/>
       <c r="L72" s="9">
-        <v>60</v>
+        <v>89.099999999999994</v>
       </c>
       <c r="M72" s="9"/>
       <c t="s" r="N72" s="7">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="73" ht="25.5" customHeight="1">
@@ -2788,13 +2809,13 @@
       <c r="F73" s="7"/>
       <c r="G73" s="7"/>
       <c t="s" r="H73" s="8">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="I73" s="8"/>
       <c r="J73" s="8"/>
       <c r="K73" s="8"/>
       <c r="L73" s="9">
-        <v>70</v>
+        <v>-185</v>
       </c>
       <c r="M73" s="9"/>
       <c t="s" r="N73" s="7">
@@ -2814,17 +2835,17 @@
       <c r="F74" s="7"/>
       <c r="G74" s="7"/>
       <c t="s" r="H74" s="8">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I74" s="8"/>
       <c r="J74" s="8"/>
       <c r="K74" s="8"/>
       <c r="L74" s="9">
-        <v>23</v>
+        <v>71</v>
       </c>
       <c r="M74" s="9"/>
       <c t="s" r="N74" s="7">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="75" ht="25.5" customHeight="1">
@@ -2840,17 +2861,17 @@
       <c r="F75" s="7"/>
       <c r="G75" s="7"/>
       <c t="s" r="H75" s="8">
-        <v>22</v>
+        <v>101</v>
       </c>
       <c r="I75" s="8"/>
       <c r="J75" s="8"/>
       <c r="K75" s="8"/>
       <c r="L75" s="9">
-        <v>112</v>
+        <v>45.5</v>
       </c>
       <c r="M75" s="9"/>
       <c t="s" r="N75" s="7">
-        <v>22</v>
+        <v>12</v>
       </c>
     </row>
     <row r="76" ht="24.75" customHeight="1">
@@ -2858,7 +2879,7 @@
         <v>73</v>
       </c>
       <c t="s" r="B76" s="7">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C76" s="7"/>
       <c r="D76" s="7"/>
@@ -2872,11 +2893,11 @@
       <c r="J76" s="8"/>
       <c r="K76" s="8"/>
       <c r="L76" s="9">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="M76" s="9"/>
       <c t="s" r="N76" s="7">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -2884,7 +2905,7 @@
         <v>74</v>
       </c>
       <c t="s" r="B77" s="7">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C77" s="7"/>
       <c r="D77" s="7"/>
@@ -2892,17 +2913,17 @@
       <c r="F77" s="7"/>
       <c r="G77" s="7"/>
       <c t="s" r="H77" s="8">
-        <v>72</v>
+        <v>12</v>
       </c>
       <c r="I77" s="8"/>
       <c r="J77" s="8"/>
       <c r="K77" s="8"/>
       <c r="L77" s="9">
-        <v>22</v>
+        <v>70</v>
       </c>
       <c r="M77" s="9"/>
       <c t="s" r="N77" s="7">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="78" ht="25.5" customHeight="1">
@@ -2910,7 +2931,7 @@
         <v>75</v>
       </c>
       <c t="s" r="B78" s="7">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C78" s="7"/>
       <c r="D78" s="7"/>
@@ -2918,13 +2939,13 @@
       <c r="F78" s="7"/>
       <c r="G78" s="7"/>
       <c t="s" r="H78" s="8">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="I78" s="8"/>
       <c r="J78" s="8"/>
       <c r="K78" s="8"/>
       <c r="L78" s="9">
-        <v>122</v>
+        <v>23</v>
       </c>
       <c r="M78" s="9"/>
       <c t="s" r="N78" s="7">
@@ -2936,7 +2957,7 @@
         <v>76</v>
       </c>
       <c t="s" r="B79" s="7">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C79" s="7"/>
       <c r="D79" s="7"/>
@@ -2944,17 +2965,17 @@
       <c r="F79" s="7"/>
       <c r="G79" s="7"/>
       <c t="s" r="H79" s="8">
-        <v>105</v>
+        <v>25</v>
       </c>
       <c r="I79" s="8"/>
       <c r="J79" s="8"/>
       <c r="K79" s="8"/>
       <c r="L79" s="9">
-        <v>26</v>
+        <v>112</v>
       </c>
       <c r="M79" s="9"/>
       <c t="s" r="N79" s="7">
-        <v>9</v>
+        <v>25</v>
       </c>
     </row>
     <row r="80" ht="25.5" customHeight="1">
@@ -2970,13 +2991,13 @@
       <c r="F80" s="7"/>
       <c r="G80" s="7"/>
       <c t="s" r="H80" s="8">
-        <v>107</v>
+        <v>12</v>
       </c>
       <c r="I80" s="8"/>
       <c r="J80" s="8"/>
       <c r="K80" s="8"/>
       <c r="L80" s="9">
-        <v>17</v>
+        <v>90</v>
       </c>
       <c r="M80" s="9"/>
       <c t="s" r="N80" s="7">
@@ -2988,7 +3009,7 @@
         <v>78</v>
       </c>
       <c t="s" r="B81" s="7">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C81" s="7"/>
       <c r="D81" s="7"/>
@@ -2996,17 +3017,17 @@
       <c r="F81" s="7"/>
       <c r="G81" s="7"/>
       <c t="s" r="H81" s="8">
-        <v>109</v>
+        <v>75</v>
       </c>
       <c r="I81" s="8"/>
       <c r="J81" s="8"/>
       <c r="K81" s="8"/>
       <c r="L81" s="9">
-        <v>12.5</v>
+        <v>22</v>
       </c>
       <c r="M81" s="9"/>
       <c t="s" r="N81" s="7">
-        <v>110</v>
+        <v>12</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -3014,7 +3035,7 @@
         <v>79</v>
       </c>
       <c t="s" r="B82" s="7">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C82" s="7"/>
       <c r="D82" s="7"/>
@@ -3022,17 +3043,17 @@
       <c r="F82" s="7"/>
       <c r="G82" s="7"/>
       <c t="s" r="H82" s="8">
-        <v>105</v>
+        <v>9</v>
       </c>
       <c r="I82" s="8"/>
       <c r="J82" s="8"/>
       <c r="K82" s="8"/>
       <c r="L82" s="9">
-        <v>224</v>
+        <v>122</v>
       </c>
       <c r="M82" s="9"/>
       <c t="s" r="N82" s="7">
-        <v>52</v>
+        <v>9</v>
       </c>
     </row>
     <row r="83" ht="25.5" customHeight="1">
@@ -3040,7 +3061,7 @@
         <v>80</v>
       </c>
       <c t="s" r="B83" s="7">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C83" s="7"/>
       <c r="D83" s="7"/>
@@ -3048,13 +3069,13 @@
       <c r="F83" s="7"/>
       <c r="G83" s="7"/>
       <c t="s" r="H83" s="8">
-        <v>12</v>
+        <v>110</v>
       </c>
       <c r="I83" s="8"/>
       <c r="J83" s="8"/>
       <c r="K83" s="8"/>
       <c r="L83" s="9">
-        <v>71</v>
+        <v>26</v>
       </c>
       <c r="M83" s="9"/>
       <c t="s" r="N83" s="7">
@@ -3066,7 +3087,7 @@
         <v>81</v>
       </c>
       <c t="s" r="B84" s="7">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C84" s="7"/>
       <c r="D84" s="7"/>
@@ -3074,17 +3095,17 @@
       <c r="F84" s="7"/>
       <c r="G84" s="7"/>
       <c t="s" r="H84" s="8">
-        <v>52</v>
+        <v>112</v>
       </c>
       <c r="I84" s="8"/>
       <c r="J84" s="8"/>
       <c r="K84" s="8"/>
       <c r="L84" s="9">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="M84" s="9"/>
       <c t="s" r="N84" s="7">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="85" ht="25.5" customHeight="1">
@@ -3092,7 +3113,7 @@
         <v>82</v>
       </c>
       <c t="s" r="B85" s="7">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C85" s="7"/>
       <c r="D85" s="7"/>
@@ -3100,17 +3121,17 @@
       <c r="F85" s="7"/>
       <c r="G85" s="7"/>
       <c t="s" r="H85" s="8">
-        <v>22</v>
+        <v>114</v>
       </c>
       <c r="I85" s="8"/>
       <c r="J85" s="8"/>
       <c r="K85" s="8"/>
       <c r="L85" s="9">
-        <v>15</v>
+        <v>12.5</v>
       </c>
       <c r="M85" s="9"/>
       <c t="s" r="N85" s="7">
-        <v>9</v>
+        <v>115</v>
       </c>
     </row>
     <row r="86" ht="24.75" customHeight="1">
@@ -3118,7 +3139,7 @@
         <v>83</v>
       </c>
       <c t="s" r="B86" s="7">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C86" s="7"/>
       <c r="D86" s="7"/>
@@ -3126,17 +3147,17 @@
       <c r="F86" s="7"/>
       <c r="G86" s="7"/>
       <c t="s" r="H86" s="8">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="I86" s="8"/>
       <c r="J86" s="8"/>
       <c r="K86" s="8"/>
       <c r="L86" s="9">
-        <v>20</v>
+        <v>224</v>
       </c>
       <c r="M86" s="9"/>
       <c t="s" r="N86" s="7">
-        <v>9</v>
+        <v>55</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -3152,13 +3173,13 @@
       <c r="F87" s="7"/>
       <c r="G87" s="7"/>
       <c t="s" r="H87" s="8">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="I87" s="8"/>
       <c r="J87" s="8"/>
       <c r="K87" s="8"/>
       <c r="L87" s="9">
-        <v>10</v>
+        <v>71</v>
       </c>
       <c r="M87" s="9"/>
       <c t="s" r="N87" s="7">
@@ -3178,17 +3199,17 @@
       <c r="F88" s="7"/>
       <c r="G88" s="7"/>
       <c t="s" r="H88" s="8">
-        <v>119</v>
+        <v>55</v>
       </c>
       <c r="I88" s="8"/>
       <c r="J88" s="8"/>
       <c r="K88" s="8"/>
       <c r="L88" s="9">
-        <v>46</v>
+        <v>15</v>
       </c>
       <c r="M88" s="9"/>
       <c t="s" r="N88" s="7">
-        <v>120</v>
+        <v>9</v>
       </c>
     </row>
     <row r="89" ht="24.75" customHeight="1">
@@ -3196,7 +3217,7 @@
         <v>86</v>
       </c>
       <c t="s" r="B89" s="7">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C89" s="7"/>
       <c r="D89" s="7"/>
@@ -3204,17 +3225,17 @@
       <c r="F89" s="7"/>
       <c r="G89" s="7"/>
       <c t="s" r="H89" s="8">
-        <v>122</v>
+        <v>25</v>
       </c>
       <c r="I89" s="8"/>
       <c r="J89" s="8"/>
       <c r="K89" s="8"/>
       <c r="L89" s="9">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="M89" s="9"/>
       <c t="s" r="N89" s="7">
-        <v>105</v>
+        <v>9</v>
       </c>
     </row>
     <row r="90" ht="25.5" customHeight="1">
@@ -3222,7 +3243,7 @@
         <v>87</v>
       </c>
       <c t="s" r="B90" s="7">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C90" s="7"/>
       <c r="D90" s="7"/>
@@ -3230,13 +3251,13 @@
       <c r="F90" s="7"/>
       <c r="G90" s="7"/>
       <c t="s" r="H90" s="8">
-        <v>12</v>
+        <v>121</v>
       </c>
       <c r="I90" s="8"/>
       <c r="J90" s="8"/>
       <c r="K90" s="8"/>
       <c r="L90" s="9">
-        <v>190</v>
+        <v>20</v>
       </c>
       <c r="M90" s="9"/>
       <c t="s" r="N90" s="7">
@@ -3248,7 +3269,7 @@
         <v>88</v>
       </c>
       <c t="s" r="B91" s="7">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C91" s="7"/>
       <c r="D91" s="7"/>
@@ -3256,13 +3277,13 @@
       <c r="F91" s="7"/>
       <c r="G91" s="7"/>
       <c t="s" r="H91" s="8">
-        <v>9</v>
+        <v>34</v>
       </c>
       <c r="I91" s="8"/>
       <c r="J91" s="8"/>
       <c r="K91" s="8"/>
       <c r="L91" s="9">
-        <v>150</v>
+        <v>10</v>
       </c>
       <c r="M91" s="9"/>
       <c t="s" r="N91" s="7">
@@ -3274,7 +3295,7 @@
         <v>89</v>
       </c>
       <c t="s" r="B92" s="7">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C92" s="7"/>
       <c r="D92" s="7"/>
@@ -3282,17 +3303,17 @@
       <c r="F92" s="7"/>
       <c r="G92" s="7"/>
       <c t="s" r="H92" s="8">
-        <v>30</v>
+        <v>124</v>
       </c>
       <c r="I92" s="8"/>
       <c r="J92" s="8"/>
       <c r="K92" s="8"/>
       <c r="L92" s="9">
-        <v>85</v>
+        <v>46</v>
       </c>
       <c r="M92" s="9"/>
       <c t="s" r="N92" s="7">
-        <v>9</v>
+        <v>125</v>
       </c>
     </row>
     <row r="93" ht="25.5" customHeight="1">
@@ -3308,17 +3329,17 @@
       <c r="F93" s="7"/>
       <c r="G93" s="7"/>
       <c t="s" r="H93" s="8">
-        <v>9</v>
+        <v>127</v>
       </c>
       <c r="I93" s="8"/>
       <c r="J93" s="8"/>
       <c r="K93" s="8"/>
       <c r="L93" s="9">
-        <v>68.599999999999994</v>
+        <v>18</v>
       </c>
       <c r="M93" s="9"/>
       <c t="s" r="N93" s="7">
-        <v>9</v>
+        <v>110</v>
       </c>
     </row>
     <row r="94" ht="24.75" customHeight="1">
@@ -3326,7 +3347,7 @@
         <v>91</v>
       </c>
       <c t="s" r="B94" s="7">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C94" s="7"/>
       <c r="D94" s="7"/>
@@ -3334,13 +3355,13 @@
       <c r="F94" s="7"/>
       <c r="G94" s="7"/>
       <c t="s" r="H94" s="8">
-        <v>119</v>
+        <v>12</v>
       </c>
       <c r="I94" s="8"/>
       <c r="J94" s="8"/>
       <c r="K94" s="8"/>
       <c r="L94" s="9">
-        <v>15</v>
+        <v>190</v>
       </c>
       <c r="M94" s="9"/>
       <c t="s" r="N94" s="7">
@@ -3352,7 +3373,7 @@
         <v>92</v>
       </c>
       <c t="s" r="B95" s="7">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C95" s="7"/>
       <c r="D95" s="7"/>
@@ -3360,13 +3381,13 @@
       <c r="F95" s="7"/>
       <c r="G95" s="7"/>
       <c t="s" r="H95" s="8">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="I95" s="8"/>
       <c r="J95" s="8"/>
       <c r="K95" s="8"/>
       <c r="L95" s="9">
-        <v>30</v>
+        <v>6</v>
       </c>
       <c r="M95" s="9"/>
       <c t="s" r="N95" s="7">
@@ -3378,7 +3399,7 @@
         <v>93</v>
       </c>
       <c t="s" r="B96" s="7">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C96" s="7"/>
       <c r="D96" s="7"/>
@@ -3386,51 +3407,181 @@
       <c r="F96" s="7"/>
       <c r="G96" s="7"/>
       <c t="s" r="H96" s="8">
-        <v>129</v>
+        <v>9</v>
       </c>
       <c r="I96" s="8"/>
       <c r="J96" s="8"/>
       <c r="K96" s="8"/>
       <c r="L96" s="9">
-        <v>70</v>
+        <v>150</v>
       </c>
       <c r="M96" s="9"/>
       <c t="s" r="N96" s="7">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="97" ht="26.25" customHeight="1">
-      <c r="K97" s="10">
-        <v>4277.8599999999997</v>
-      </c>
-      <c r="L97" s="10"/>
-      <c r="M97" s="10"/>
-      <c r="N97" s="10"/>
-    </row>
-    <row r="98" ht="16.5" customHeight="1">
-      <c t="s" r="A98" s="11">
-        <v>131</v>
-      </c>
-      <c r="B98" s="11"/>
-      <c r="C98" s="11"/>
-      <c r="D98" s="11"/>
-      <c r="E98" s="11"/>
-      <c t="s" r="F98" s="12">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="97" ht="25.5" customHeight="1">
+      <c r="A97" s="6">
+        <v>94</v>
+      </c>
+      <c t="s" r="B97" s="7">
         <v>132</v>
       </c>
-      <c r="G98" s="12"/>
-      <c r="H98" s="13"/>
-      <c t="s" r="I98" s="14">
+      <c r="C97" s="7"/>
+      <c r="D97" s="7"/>
+      <c r="E97" s="7"/>
+      <c r="F97" s="7"/>
+      <c r="G97" s="7"/>
+      <c t="s" r="H97" s="8">
+        <v>34</v>
+      </c>
+      <c r="I97" s="8"/>
+      <c r="J97" s="8"/>
+      <c r="K97" s="8"/>
+      <c r="L97" s="9">
+        <v>85</v>
+      </c>
+      <c r="M97" s="9"/>
+      <c t="s" r="N97" s="7">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="98" ht="25.5" customHeight="1">
+      <c r="A98" s="6">
+        <v>95</v>
+      </c>
+      <c t="s" r="B98" s="7">
         <v>133</v>
       </c>
-      <c r="J98" s="14"/>
-      <c r="K98" s="14"/>
-      <c r="L98" s="14"/>
-      <c r="M98" s="14"/>
-      <c r="N98" s="14"/>
+      <c r="C98" s="7"/>
+      <c r="D98" s="7"/>
+      <c r="E98" s="7"/>
+      <c r="F98" s="7"/>
+      <c r="G98" s="7"/>
+      <c t="s" r="H98" s="8">
+        <v>9</v>
+      </c>
+      <c r="I98" s="8"/>
+      <c r="J98" s="8"/>
+      <c r="K98" s="8"/>
+      <c r="L98" s="9">
+        <v>68.599999999999994</v>
+      </c>
+      <c r="M98" s="9"/>
+      <c t="s" r="N98" s="7">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="99" ht="24.75" customHeight="1">
+      <c r="A99" s="6">
+        <v>96</v>
+      </c>
+      <c t="s" r="B99" s="7">
+        <v>134</v>
+      </c>
+      <c r="C99" s="7"/>
+      <c r="D99" s="7"/>
+      <c r="E99" s="7"/>
+      <c r="F99" s="7"/>
+      <c r="G99" s="7"/>
+      <c t="s" r="H99" s="8">
+        <v>124</v>
+      </c>
+      <c r="I99" s="8"/>
+      <c r="J99" s="8"/>
+      <c r="K99" s="8"/>
+      <c r="L99" s="9">
+        <v>15</v>
+      </c>
+      <c r="M99" s="9"/>
+      <c t="s" r="N99" s="7">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="100" ht="25.5" customHeight="1">
+      <c r="A100" s="6">
+        <v>97</v>
+      </c>
+      <c t="s" r="B100" s="7">
+        <v>135</v>
+      </c>
+      <c r="C100" s="7"/>
+      <c r="D100" s="7"/>
+      <c r="E100" s="7"/>
+      <c r="F100" s="7"/>
+      <c r="G100" s="7"/>
+      <c t="s" r="H100" s="8">
+        <v>136</v>
+      </c>
+      <c r="I100" s="8"/>
+      <c r="J100" s="8"/>
+      <c r="K100" s="8"/>
+      <c r="L100" s="9">
+        <v>30</v>
+      </c>
+      <c r="M100" s="9"/>
+      <c t="s" r="N100" s="7">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="101" ht="24.75" customHeight="1">
+      <c r="A101" s="6">
+        <v>98</v>
+      </c>
+      <c t="s" r="B101" s="7">
+        <v>137</v>
+      </c>
+      <c r="C101" s="7"/>
+      <c r="D101" s="7"/>
+      <c r="E101" s="7"/>
+      <c r="F101" s="7"/>
+      <c r="G101" s="7"/>
+      <c t="s" r="H101" s="8">
+        <v>136</v>
+      </c>
+      <c r="I101" s="8"/>
+      <c r="J101" s="8"/>
+      <c r="K101" s="8"/>
+      <c r="L101" s="9">
+        <v>70</v>
+      </c>
+      <c r="M101" s="9"/>
+      <c t="s" r="N101" s="7">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="102" ht="26.25" customHeight="1">
+      <c r="K102" s="10">
+        <v>4618.3599999999997</v>
+      </c>
+      <c r="L102" s="10"/>
+      <c r="M102" s="10"/>
+      <c r="N102" s="10"/>
+    </row>
+    <row r="103" ht="16.5" customHeight="1">
+      <c t="s" r="A103" s="11">
+        <v>138</v>
+      </c>
+      <c r="B103" s="11"/>
+      <c r="C103" s="11"/>
+      <c r="D103" s="11"/>
+      <c r="E103" s="11"/>
+      <c t="s" r="F103" s="12">
+        <v>139</v>
+      </c>
+      <c r="G103" s="12"/>
+      <c r="H103" s="13"/>
+      <c t="s" r="I103" s="14">
+        <v>140</v>
+      </c>
+      <c r="J103" s="14"/>
+      <c r="K103" s="14"/>
+      <c r="L103" s="14"/>
+      <c r="M103" s="14"/>
+      <c r="N103" s="14"/>
     </row>
   </sheetData>
-  <mergeCells count="290">
+  <mergeCells count="305">
     <mergeCell ref="C1:L1"/>
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="G2:I2"/>
@@ -3717,10 +3868,25 @@
     <mergeCell ref="B96:G96"/>
     <mergeCell ref="H96:K96"/>
     <mergeCell ref="L96:M96"/>
-    <mergeCell ref="K97:N97"/>
-    <mergeCell ref="A98:E98"/>
-    <mergeCell ref="F98:G98"/>
-    <mergeCell ref="I98:N98"/>
+    <mergeCell ref="B97:G97"/>
+    <mergeCell ref="H97:K97"/>
+    <mergeCell ref="L97:M97"/>
+    <mergeCell ref="B98:G98"/>
+    <mergeCell ref="H98:K98"/>
+    <mergeCell ref="L98:M98"/>
+    <mergeCell ref="B99:G99"/>
+    <mergeCell ref="H99:K99"/>
+    <mergeCell ref="L99:M99"/>
+    <mergeCell ref="B100:G100"/>
+    <mergeCell ref="H100:K100"/>
+    <mergeCell ref="L100:M100"/>
+    <mergeCell ref="B101:G101"/>
+    <mergeCell ref="H101:K101"/>
+    <mergeCell ref="L101:M101"/>
+    <mergeCell ref="K102:N102"/>
+    <mergeCell ref="A103:E103"/>
+    <mergeCell ref="F103:G103"/>
+    <mergeCell ref="I103:N103"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>
